--- a/Task Delegation/long_format/lstm_results_grid-search.xlsx
+++ b/Task Delegation/long_format/lstm_results_grid-search.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\1. MSC Thesis Exp\Task Delegation\long_format\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -133,8 +138,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +202,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -243,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +288,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,6 +323,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,14 +499,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -555,13 +572,13 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>5.022468456306805</v>
+        <v>5.0224684563068047</v>
       </c>
       <c r="E2">
-        <v>4.386912788450718</v>
+        <v>4.3869127884507177</v>
       </c>
       <c r="F2">
-        <v>0.04803793096805731</v>
+        <v>4.8037930968057307E-2</v>
       </c>
       <c r="G2">
         <v>31</v>
@@ -570,13 +587,13 @@
         <v>21</v>
       </c>
       <c r="I2">
-        <v>23.22370314598083</v>
+        <v>23.223703145980831</v>
       </c>
       <c r="J2">
-        <v>16.37772750854492</v>
+        <v>16.377727508544918</v>
       </c>
       <c r="K2">
-        <v>17.63679504394531</v>
+        <v>17.636795043945309</v>
       </c>
       <c r="L2">
         <v>380</v>
@@ -597,7 +614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -611,7 +628,7 @@
         <v>4.693853715519019</v>
       </c>
       <c r="E3">
-        <v>3.916633509044294</v>
+        <v>3.9166335090442939</v>
       </c>
       <c r="F3">
         <v>0.2182932048701344</v>
@@ -623,13 +640,13 @@
         <v>50</v>
       </c>
       <c r="I3">
-        <v>9.275684595108032</v>
+        <v>9.2756845951080322</v>
       </c>
       <c r="J3">
-        <v>17.29526138305664</v>
+        <v>17.295261383056641</v>
       </c>
       <c r="K3">
-        <v>17.29526138305664</v>
+        <v>17.295261383056641</v>
       </c>
       <c r="L3">
         <v>380</v>
@@ -650,7 +667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -664,10 +681,10 @@
         <v>5.120073350936158</v>
       </c>
       <c r="E4">
-        <v>4.223612990630445</v>
+        <v>4.2236129906304454</v>
       </c>
       <c r="F4">
-        <v>0.1708085202040742</v>
+        <v>0.17080852020407419</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -676,7 +693,7 @@
         <v>44</v>
       </c>
       <c r="I4">
-        <v>13.02958011627197</v>
+        <v>13.029580116271971</v>
       </c>
       <c r="J4">
         <v>19.93117713928223</v>
@@ -703,7 +720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -714,13 +731,13 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>5.956198631950661</v>
+        <v>5.5619863195065999</v>
       </c>
       <c r="E5">
-        <v>4.992874192198118</v>
+        <v>4.4928741921981201</v>
       </c>
       <c r="F5">
-        <v>0.03877591852773887</v>
+        <v>0.19877591852773799</v>
       </c>
       <c r="G5">
         <v>40</v>
@@ -729,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="I5">
-        <v>33.01400136947632</v>
+        <v>33.014001369476318</v>
       </c>
       <c r="J5">
         <v>23.92282867431641</v>
@@ -756,7 +773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -767,13 +784,13 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>5.44931809319641</v>
+        <v>5.1493180931964098</v>
       </c>
       <c r="E6">
-        <v>4.351246643811464</v>
+        <v>4.4512466438114604</v>
       </c>
       <c r="F6">
-        <v>0.07564770021020961</v>
+        <v>0.17564770021020901</v>
       </c>
       <c r="G6">
         <v>37</v>
@@ -785,7 +802,7 @@
         <v>21.98261570930481</v>
       </c>
       <c r="J6">
-        <v>22.3618221282959</v>
+        <v>22.361822128295898</v>
       </c>
       <c r="K6">
         <v>27.12912559509277</v>
